--- a/biology/Zoologie/Hansenochrus_selva/Hansenochrus_selva.xlsx
+++ b/biology/Zoologie/Hansenochrus_selva/Hansenochrus_selva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hansenochrus selva est une espèce de schizomides de la famille des Hubbardiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Costa Rica[1]. Elle se rencontre dans la station biologique La Selva.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Costa Rica. Elle se rencontre dans la station biologique La Selva.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3,55 mm et la femelle paratype 3,90 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3,55 mm et la femelle paratype 3,90 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la station biologique La Selva.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Armas, 2009 : Dos nuevas especies de Hansenochrus y Rowlandius (Schizomida: Hubbardiidae) de Costa Rica. Boletin de la Sociedad Entomológica Aragonesa, vol. 45, p. 253-257 (texte original).</t>
         </is>
